--- a/Task2/Results/GroupByPropertyID/GF.xlsx
+++ b/Task2/Results/GroupByPropertyID/GF.xlsx
@@ -463,7 +463,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>9091</v>
+        <v>8181</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>9092</v>
+        <v>8182</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
